--- a/data-raw/finance_lovs.xlsx
+++ b/data-raw/finance_lovs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb524812\Documents\harvest\fin2ddh-master\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb524812\Documents\harvest\fin2ddh-add-functions\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="finance_lovs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
   <si>
     <t>machine_name</t>
   </si>
@@ -1006,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1305,21 +1305,21 @@
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,10 +1327,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,10 +1338,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,9 +1349,20 @@
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>43</v>
       </c>
     </row>

--- a/data-raw/finance_lovs.xlsx
+++ b/data-raw/finance_lovs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>machine_name</t>
   </si>
@@ -150,13 +150,28 @@
     <t>Survey(Microdata)</t>
   </si>
   <si>
-    <t>Microdata</t>
-  </si>
-  <si>
     <t>field_license_wbddh</t>
   </si>
   <si>
     <t>Creative Commons Attribution 4.0</t>
+  </si>
+  <si>
+    <t>field_granularity_list</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Sub-national</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>Subnational</t>
   </si>
 </sst>
 </file>
@@ -1006,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1108,35 +1123,35 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1305,21 +1320,21 @@
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -1327,10 +1342,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1338,10 +1353,10 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -1349,21 +1364,65 @@
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/finance_lovs.xlsx
+++ b/data-raw/finance_lovs.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
   <si>
     <t>machine_name</t>
   </si>
@@ -1021,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>39</v>
@@ -1342,10 +1342,10 @@
         <v>37</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,7 +1353,7 @@
         <v>37</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>39</v>
@@ -1364,18 +1364,18 @@
         <v>37</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="B32" t="s">
-        <v>39</v>
+      <c r="A32" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>39</v>
@@ -1386,10 +1386,10 @@
         <v>45</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -1397,10 +1397,10 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -1408,10 +1408,10 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -1419,9 +1419,20 @@
         <v>45</v>
       </c>
       <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>49</v>
       </c>
     </row>

--- a/data-raw/finance_lovs.xlsx
+++ b/data-raw/finance_lovs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb524812\Documents\harvest\fin2ddh-add-functions\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb524812\Documents\harvest\testing\fin2ddh-add-functions\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="finance_lovs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
   <si>
     <t>machine_name</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t>Subnational</t>
+  </si>
+  <si>
+    <t>field_tags</t>
+  </si>
+  <si>
+    <t>finances.worldbank.org</t>
   </si>
 </sst>
 </file>
@@ -1021,10 +1027,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1436,6 +1442,17 @@
         <v>49</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data-raw/finance_lovs.xlsx
+++ b/data-raw/finance_lovs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb524812\Documents\harvest\testing\fin2ddh-add-functions\data-raw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WB525812\cmder\Git Repos\fin2ddh\data-raw\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C43A63-69D2-49D7-875F-5BD93FC6A0F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="finance_lovs" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="57">
   <si>
     <t>machine_name</t>
   </si>
@@ -178,12 +179,24 @@
   </si>
   <si>
     <t>finances.worldbank.org</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Hour/Minute/Second</t>
+  </si>
+  <si>
+    <t>Weekly</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1026,17 +1039,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
     <col min="2" max="2" width="58.28515625" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1121,21 +1135,21 @@
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1143,7 +1157,7 @@
         <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" t="s">
         <v>44</v>
@@ -1154,21 +1168,21 @@
         <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
+      <c r="A12" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1176,10 +1190,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1187,10 +1201,10 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1198,10 +1212,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1209,7 +1223,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>16</v>
@@ -1217,33 +1231,33 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="C18" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,21 +1265,21 @@
         <v>23</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1287,10 @@
         <v>27</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,21 +1298,21 @@
         <v>27</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1306,19 +1320,21 @@
         <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1326,51 +1342,49 @@
         <v>32</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B28" s="1"/>
       <c r="C28" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>39</v>
@@ -1378,20 +1392,20 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1399,57 +1413,112 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B34" t="s">
-        <v>46</v>
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B35" t="s">
-        <v>47</v>
+      <c r="A35" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>48</v>
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B37" t="s">
-        <v>49</v>
+      <c r="A37" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>51</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C43" t="s">
         <v>52</v>
       </c>
     </row>
